--- a/data_raw/Processed Results/22-23 Results/25Oct.xlsx
+++ b/data_raw/Processed Results/22-23 Results/25Oct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yance\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alliedmotion-my.sharepoint.com/personal/yarrington_dynamiccontrols_com/Documents/Desktop/R and BI Projects/CTTA TT Analysis/data_raw/Processed Results/22-23 Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF79C4-6189-491D-B1EC-970BC0A39556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D2DF79C4-6189-491D-B1EC-970BC0A39556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{715DAC30-89AE-472D-B988-E1B08D536D14}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="5715" windowWidth="26985" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25OOct_Merckx" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="F11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,8 @@
     <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,7 +603,7 @@
         <v>1.655324074074074E-2</v>
       </c>
       <c r="D2" s="5">
-        <f>IF(ISERROR(16/(C2*24)),"",16/(C2*24))</f>
+        <f t="shared" ref="D2:D26" si="0">IF(ISERROR(16/(C2*24)),"",16/(C2*24))</f>
         <v>40.274087540204171</v>
       </c>
       <c r="E2">
@@ -623,7 +624,7 @@
         <v>2.0241898148148148E-2</v>
       </c>
       <c r="D3" s="5">
-        <f>IF(ISERROR(16/(C3*24)),"",16/(C3*24))</f>
+        <f t="shared" si="0"/>
         <v>32.93498770655841</v>
       </c>
       <c r="E3">
@@ -644,7 +645,7 @@
         <v>1.8746527777777779E-2</v>
       </c>
       <c r="D4" s="5">
-        <f>IF(ISERROR(16/(C4*24)),"",16/(C4*24))</f>
+        <f t="shared" si="0"/>
         <v>35.562141137247636</v>
       </c>
       <c r="E4">
@@ -665,7 +666,7 @@
         <v>2.1357638888888888E-2</v>
       </c>
       <c r="D5" s="5">
-        <f>IF(ISERROR(16/(C5*24)),"",16/(C5*24))</f>
+        <f t="shared" si="0"/>
         <v>31.2144366769631</v>
       </c>
       <c r="E5">
@@ -686,7 +687,7 @@
         <v>2.0945601851851851E-2</v>
       </c>
       <c r="D6" s="5">
-        <f>IF(ISERROR(16/(C6*24)),"",16/(C6*24))</f>
+        <f t="shared" si="0"/>
         <v>31.828479858540089</v>
       </c>
       <c r="E6">
@@ -707,7 +708,7 @@
         <v>1.8549768518518518E-2</v>
       </c>
       <c r="D7" s="5">
-        <f>IF(ISERROR(16/(C7*24)),"",16/(C7*24))</f>
+        <f t="shared" si="0"/>
         <v>35.939352342921318</v>
       </c>
       <c r="E7">
@@ -728,7 +729,7 @@
         <v>1.9395833333333331E-2</v>
       </c>
       <c r="D8" s="5">
-        <f>IF(ISERROR(16/(C8*24)),"",16/(C8*24))</f>
+        <f t="shared" si="0"/>
         <v>34.371643394199793</v>
       </c>
       <c r="E8">
@@ -749,7 +750,7 @@
         <v>1.7569444444444447E-2</v>
       </c>
       <c r="D9" s="5">
-        <f>IF(ISERROR(16/(C9*24)),"",16/(C9*24))</f>
+        <f t="shared" si="0"/>
         <v>37.944664031620547</v>
       </c>
       <c r="E9">
@@ -770,7 +771,7 @@
         <v>1.8649305555555554E-2</v>
       </c>
       <c r="D10" s="5">
-        <f>IF(ISERROR(16/(C10*24)),"",16/(C10*24))</f>
+        <f t="shared" si="0"/>
         <v>35.747533047849565</v>
       </c>
       <c r="E10">
@@ -791,7 +792,7 @@
         <v>2.0215277777777776E-2</v>
       </c>
       <c r="D11" s="5">
-        <f>IF(ISERROR(16/(C11*24)),"",16/(C11*24))</f>
+        <f t="shared" si="0"/>
         <v>32.978357952593612</v>
       </c>
       <c r="E11">
@@ -812,7 +813,7 @@
         <v>1.6716435185185185E-2</v>
       </c>
       <c r="D12" s="5">
-        <f>IF(ISERROR(16/(C12*24)),"",16/(C12*24))</f>
+        <f t="shared" si="0"/>
         <v>39.880911168039887</v>
       </c>
       <c r="E12">
@@ -833,7 +834,7 @@
         <v>1.8936342592592591E-2</v>
       </c>
       <c r="D13" s="5">
-        <f>IF(ISERROR(16/(C13*24)),"",16/(C13*24))</f>
+        <f t="shared" si="0"/>
         <v>35.205672024937357</v>
       </c>
       <c r="E13">
@@ -854,7 +855,7 @@
         <v>1.5195601851851854E-2</v>
       </c>
       <c r="D14" s="5">
-        <f>IF(ISERROR(16/(C14*24)),"",16/(C14*24))</f>
+        <f t="shared" si="0"/>
         <v>43.872343666692053</v>
       </c>
       <c r="E14">
@@ -875,7 +876,7 @@
         <v>1.6524305555555556E-2</v>
       </c>
       <c r="D15" s="5">
-        <f>IF(ISERROR(16/(C15*24)),"",16/(C15*24))</f>
+        <f t="shared" si="0"/>
         <v>40.344610212229462</v>
       </c>
       <c r="E15">
@@ -896,7 +897,7 @@
         <v>1.931828703703704E-2</v>
       </c>
       <c r="D16" s="5">
-        <f>IF(ISERROR(16/(C16*24)),"",16/(C16*24))</f>
+        <f t="shared" si="0"/>
         <v>34.509615960697381</v>
       </c>
       <c r="E16">
@@ -917,7 +918,7 @@
         <v>1.9050925925925926E-2</v>
       </c>
       <c r="D17" s="5">
-        <f>IF(ISERROR(16/(C17*24)),"",16/(C17*24))</f>
+        <f t="shared" si="0"/>
         <v>34.993924665856625</v>
       </c>
       <c r="E17">
@@ -938,7 +939,7 @@
         <v>1.7495370370370369E-2</v>
       </c>
       <c r="D18" s="5">
-        <f>IF(ISERROR(16/(C18*24)),"",16/(C18*24))</f>
+        <f t="shared" si="0"/>
         <v>38.105318867425247</v>
       </c>
       <c r="E18">
@@ -959,7 +960,7 @@
         <v>2.0221064814814813E-2</v>
       </c>
       <c r="D19" s="5">
-        <f>IF(ISERROR(16/(C19*24)),"",16/(C19*24))</f>
+        <f t="shared" si="0"/>
         <v>32.968919924446226</v>
       </c>
       <c r="E19">
@@ -980,7 +981,7 @@
         <v>1.8140046296296296E-2</v>
       </c>
       <c r="D20" s="5">
-        <f>IF(ISERROR(16/(C20*24)),"",16/(C20*24))</f>
+        <f t="shared" si="0"/>
         <v>36.751100618898747</v>
       </c>
       <c r="E20">
@@ -1001,7 +1002,7 @@
         <v>1.9934027777777776E-2</v>
       </c>
       <c r="D21" s="5">
-        <f>IF(ISERROR(16/(C21*24)),"",16/(C21*24))</f>
+        <f t="shared" si="0"/>
         <v>33.443650931893401</v>
       </c>
       <c r="E21">
@@ -1022,7 +1023,7 @@
         <v>1.7325231481481483E-2</v>
       </c>
       <c r="D22" s="5">
-        <f>IF(ISERROR(16/(C22*24)),"",16/(C22*24))</f>
+        <f t="shared" si="0"/>
         <v>38.479524350323999</v>
       </c>
       <c r="E22">
@@ -1043,7 +1044,7 @@
         <v>1.7570601851851851E-2</v>
       </c>
       <c r="D23" s="5">
-        <f>IF(ISERROR(16/(C23*24)),"",16/(C23*24))</f>
+        <f t="shared" si="0"/>
         <v>37.94216454779</v>
       </c>
       <c r="E23">
@@ -1064,7 +1065,7 @@
         <v>1.5385416666666667E-2</v>
       </c>
       <c r="D24" s="5">
-        <f>IF(ISERROR(16/(C24*24)),"",16/(C24*24))</f>
+        <f t="shared" si="0"/>
         <v>43.331076506431955</v>
       </c>
       <c r="E24">
@@ -1085,7 +1086,7 @@
         <v>1.8951388888888889E-2</v>
       </c>
       <c r="D25" s="5">
-        <f>IF(ISERROR(16/(C25*24)),"",16/(C25*24))</f>
+        <f t="shared" si="0"/>
         <v>35.177720776841333</v>
       </c>
       <c r="E25">
@@ -1106,7 +1107,7 @@
         <v>1.5821759259259261E-2</v>
       </c>
       <c r="D26" s="5">
-        <f>IF(ISERROR(16/(C26*24)),"",16/(C26*24))</f>
+        <f t="shared" si="0"/>
         <v>42.136064374542784</v>
       </c>
       <c r="E26">
